--- a/所有字段.xlsx
+++ b/所有字段.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lee/OneDrive - inc/CM/需求/facebook投放自动化/投放自动化需求文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{479C2FCB-F5F1-9248-BAA4-16BAACC456C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{479C2FCB-F5F1-9248-BAA4-16BAACC456C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{0A37A421-ACE1-F74F-832A-E87AF7A7666F}"/>
+    <workbookView xWindow="780" yWindow="820" windowWidth="27640" windowHeight="15760" xr2:uid="{0A37A421-ACE1-F74F-832A-E87AF7A7666F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,7 +912,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A80"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
